--- a/work/pizza.xlsx
+++ b/work/pizza.xlsx
@@ -1,32 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="pizza" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="pizza" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Promote</t>
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promotion = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -344,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -459,6 +546,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -504,8 +611,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -746,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74695808"/>
-        <c:axId val="49868160"/>
+        <c:axId val="134882432"/>
+        <c:axId val="134883968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74695808"/>
+        <c:axId val="134882432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +875,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49868160"/>
+        <c:crossAx val="134883968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49868160"/>
+        <c:axId val="134883968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74695808"/>
+        <c:crossAx val="134882432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -802,16 +917,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1120,10 +1235,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.99439167996752531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.98881481318863729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.98815686102326294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>65.991585757991288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6544820.9856186341</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6544820.9856186341</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1502.8673287003294</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.9657453124740161E-18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>74033.119644523424</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4354.8893908543187</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6618854.1052631577</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.4858653632529695</v>
+      </c>
+      <c r="C17" s="1">
+        <v>34.718002904714041</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.15801212351728025</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.87630899338315271</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-67.762717996375059</v>
+      </c>
+      <c r="G17" s="1">
+        <v>78.734448722880998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-67.762717996375059</v>
+      </c>
+      <c r="I17" s="1">
+        <v>78.734448722880998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>23.50640302155076</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.60635345468036073</v>
+      </c>
+      <c r="D18" s="2">
+        <v>38.766832843299561</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.9657453124739807E-18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>22.227109057193086</v>
+      </c>
+      <c r="G18" s="2">
+        <v>24.785696985908434</v>
+      </c>
+      <c r="H18" s="2">
+        <v>22.227109057193086</v>
+      </c>
+      <c r="I18" s="2">
+        <v>24.785696985908434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>21.037422619844243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <f>B17+B18*C22</f>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
